--- a/transaction_import_template.xlsx
+++ b/transaction_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coreyvarma/investments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2152B1E-43BF-D446-B3BF-F407544C6481}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950FFC5-ABA2-474B-A6D3-42A021278BC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="3500" windowWidth="27640" windowHeight="16940" xr2:uid="{A21784B0-9EE2-A340-9B6A-D4A3F808DD68}"/>
   </bookViews>
@@ -858,7 +858,7 @@
   <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="11">
-        <v>27.076000000000001</v>
+        <v>27.0764</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1033,7 +1033,7 @@
         <v>103.75</v>
       </c>
       <c r="F8" s="10">
-        <v>112.95</v>
+        <v>225.9</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>12</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="9">
-        <v>1E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="E9" s="11">
         <v>40841.339999999997</v>
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="9">
-        <v>1E-3</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="E10" s="11">
         <v>50693.49</v>
@@ -1095,6 +1095,9 @@
       <c r="E11" s="11">
         <v>0</v>
       </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>67</v>
       </c>
       <c r="F13" s="10">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
@@ -1159,7 +1162,7 @@
         <v>43.19</v>
       </c>
       <c r="F14" s="10">
-        <v>50.07</v>
+        <v>100.14</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>16</v>
@@ -1176,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="9">
-        <v>1E-3</v>
+        <v>1.06E-3</v>
       </c>
       <c r="E15" s="11">
         <v>47167.15</v>
@@ -1236,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="9">
-        <v>0.01</v>
+        <v>9.6699999999999998E-3</v>
       </c>
       <c r="E18" s="11">
         <v>109.58</v>
@@ -1256,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>2.65E-3</v>
       </c>
       <c r="E19" s="11">
         <v>18866.150000000001</v>
@@ -1385,7 +1388,7 @@
         <v>171.16</v>
       </c>
       <c r="F25" s="10">
-        <v>303.66000000000003</v>
+        <v>607.32000000000005</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>24</v>
@@ -1408,7 +1411,7 @@
         <v>45.78</v>
       </c>
       <c r="F26" s="10">
-        <v>90.87</v>
+        <v>181.74</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>24</v>
@@ -1488,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="11">
-        <v>13.116</v>
+        <v>13.116099999999999</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>28</v>
@@ -1671,7 +1674,7 @@
         <v>25.63</v>
       </c>
       <c r="F39" s="10">
-        <v>29.03</v>
+        <v>58.05</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>34</v>

--- a/transaction_import_template.xlsx
+++ b/transaction_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coreyvarma/investments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950FFC5-ABA2-474B-A6D3-42A021278BC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B5AC4E-AC61-7842-ACC7-95C8BC4134F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="3500" windowWidth="27640" windowHeight="16940" xr2:uid="{A21784B0-9EE2-A340-9B6A-D4A3F808DD68}"/>
   </bookViews>
@@ -429,9 +429,6 @@
     <t>FCOM</t>
   </si>
   <si>
-    <t>^NYXBT</t>
-  </si>
-  <si>
     <t>Rollover IRA</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>Conservative, Long &amp; Bonds</t>
+  </si>
+  <si>
+    <t>BTC-USD</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
   <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -897,7 +897,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -917,7 +917,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
@@ -937,7 +937,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -958,7 +958,7 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
@@ -978,7 +978,7 @@
         <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -998,7 +998,7 @@
         <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
@@ -1021,7 +1021,7 @@
         <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>7</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>7</v>
@@ -1107,7 +1107,7 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>8</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>7</v>
@@ -1193,7 +1193,7 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -1213,7 +1213,7 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>7</v>
@@ -1233,7 +1233,7 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>7</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>7</v>
@@ -1273,7 +1273,7 @@
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>7</v>
@@ -1293,7 +1293,7 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>7</v>
@@ -1313,7 +1313,7 @@
         <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>7</v>
@@ -1333,7 +1333,7 @@
         <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>7</v>
@@ -1353,7 +1353,7 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>8</v>
@@ -1376,7 +1376,7 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>8</v>
@@ -1399,7 +1399,7 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>8</v>
@@ -1422,7 +1422,7 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>7</v>
@@ -1442,7 +1442,7 @@
         <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>7</v>
@@ -1462,7 +1462,7 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>7</v>
@@ -1482,7 +1482,7 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>7</v>
@@ -1502,7 +1502,7 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>7</v>
@@ -1522,7 +1522,7 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>7</v>
@@ -1542,7 +1542,7 @@
         <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>7</v>
@@ -1562,7 +1562,7 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>7</v>
@@ -1582,7 +1582,7 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>7</v>
@@ -1602,7 +1602,7 @@
         <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>7</v>
@@ -1622,7 +1622,7 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>7</v>
@@ -1642,7 +1642,7 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>7</v>
@@ -1662,7 +1662,7 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>8</v>
@@ -1685,7 +1685,7 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>8</v>
@@ -1708,7 +1708,7 @@
         <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>7</v>
@@ -1728,7 +1728,7 @@
         <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>7</v>
@@ -1748,7 +1748,7 @@
         <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>7</v>
@@ -1768,7 +1768,7 @@
         <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>7</v>
@@ -1788,7 +1788,7 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>7</v>
@@ -1808,7 +1808,7 @@
         <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>7</v>
@@ -1828,7 +1828,7 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>7</v>
@@ -1868,7 +1868,7 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>7</v>
@@ -1888,7 +1888,7 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>7</v>
@@ -1908,7 +1908,7 @@
         <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>7</v>
@@ -1928,7 +1928,7 @@
         <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>7</v>
@@ -1948,7 +1948,7 @@
         <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>7</v>
@@ -1968,7 +1968,7 @@
         <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>7</v>
@@ -1988,7 +1988,7 @@
         <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>7</v>
@@ -2008,7 +2008,7 @@
         <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>7</v>
@@ -2028,7 +2028,7 @@
         <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>7</v>
@@ -2048,7 +2048,7 @@
         <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>7</v>
@@ -2068,7 +2068,7 @@
         <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>7</v>
@@ -2088,7 +2088,7 @@
         <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>7</v>
@@ -2108,7 +2108,7 @@
         <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>7</v>
@@ -2128,7 +2128,7 @@
         <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>7</v>
@@ -2148,7 +2148,7 @@
         <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>7</v>
@@ -2168,7 +2168,7 @@
         <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>7</v>
@@ -2188,7 +2188,7 @@
         <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>7</v>
@@ -2208,7 +2208,7 @@
         <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>7</v>
@@ -2228,7 +2228,7 @@
         <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -2248,7 +2248,7 @@
         <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
@@ -2268,7 +2268,7 @@
         <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
@@ -2288,7 +2288,7 @@
         <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -2308,7 +2308,7 @@
         <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
@@ -2328,7 +2328,7 @@
         <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
@@ -2348,7 +2348,7 @@
         <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -2368,7 +2368,7 @@
         <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
@@ -2388,7 +2388,7 @@
         <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>7</v>
@@ -2408,7 +2408,7 @@
         <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>7</v>
@@ -2428,7 +2428,7 @@
         <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
@@ -2448,7 +2448,7 @@
         <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>7</v>
@@ -2468,7 +2468,7 @@
         <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
@@ -2488,7 +2488,7 @@
         <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>8</v>
@@ -2511,7 +2511,7 @@
         <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>7</v>
@@ -2531,7 +2531,7 @@
         <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>7</v>
@@ -2551,7 +2551,7 @@
         <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>7</v>
@@ -2571,7 +2571,7 @@
         <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>7</v>
@@ -2591,7 +2591,7 @@
         <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>7</v>
@@ -2611,7 +2611,7 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>7</v>
@@ -2631,7 +2631,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>7</v>
@@ -2651,7 +2651,7 @@
         <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>7</v>
@@ -2671,7 +2671,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>7</v>
@@ -2691,7 +2691,7 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>7</v>
@@ -2711,7 +2711,7 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>7</v>
@@ -2731,7 +2731,7 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>7</v>
@@ -2751,7 +2751,7 @@
         <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>7</v>
@@ -2771,7 +2771,7 @@
         <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>7</v>
@@ -2791,7 +2791,7 @@
         <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>7</v>
@@ -2811,7 +2811,7 @@
         <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>7</v>
@@ -2831,7 +2831,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>7</v>
@@ -2851,7 +2851,7 @@
         <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>7</v>
@@ -2871,7 +2871,7 @@
         <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>7</v>
@@ -2891,7 +2891,7 @@
         <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>7</v>
@@ -2911,7 +2911,7 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>7</v>
@@ -2931,7 +2931,7 @@
         <v>126</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>7</v>
@@ -2951,7 +2951,7 @@
         <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>7</v>
@@ -2971,7 +2971,7 @@
         <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>7</v>
@@ -2991,7 +2991,7 @@
         <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>7</v>
@@ -3011,7 +3011,7 @@
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>7</v>
@@ -3031,7 +3031,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>7</v>
@@ -3051,7 +3051,7 @@
         <v>94</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>7</v>
@@ -3071,7 +3071,7 @@
         <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>7</v>
@@ -3091,7 +3091,7 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>7</v>
@@ -3111,7 +3111,7 @@
         <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>7</v>
@@ -3131,7 +3131,7 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>7</v>
@@ -3151,7 +3151,7 @@
         <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>7</v>
@@ -3171,7 +3171,7 @@
         <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>7</v>
@@ -3191,7 +3191,7 @@
         <v>97</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>7</v>
@@ -3211,7 +3211,7 @@
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>7</v>
@@ -3231,7 +3231,7 @@
         <v>98</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>7</v>
@@ -3251,7 +3251,7 @@
         <v>131</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>7</v>
@@ -3271,7 +3271,7 @@
         <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>7</v>
@@ -3291,7 +3291,7 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>7</v>
@@ -3311,7 +3311,7 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>7</v>
@@ -3331,7 +3331,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>7</v>
@@ -3351,7 +3351,7 @@
         <v>89</v>
       </c>
       <c r="B123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>7</v>
@@ -3371,7 +3371,7 @@
         <v>101</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>7</v>
@@ -3391,7 +3391,7 @@
         <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>7</v>
@@ -3411,7 +3411,7 @@
         <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>7</v>
@@ -3431,7 +3431,7 @@
         <v>116</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>7</v>
@@ -3451,7 +3451,7 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>7</v>
@@ -3471,7 +3471,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>7</v>
@@ -3491,7 +3491,7 @@
         <v>94</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>7</v>
